--- a/docs/electric-apprentice-projects.xlsx
+++ b/docs/electric-apprentice-projects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Github\electric-essence\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6FD36D-CCDD-4A60-9D54-DE88A763D529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB5568D-D01B-4344-925F-9F0DF4172895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{32F997C3-69D6-4326-8E8B-03D12FC9E4A6}"/>
   </bookViews>
@@ -133,8 +133,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -162,8 +178,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -481,7 +499,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A16" activeCellId="2" sqref="A4:A7 A10:A14 A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +517,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
@@ -507,7 +525,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
@@ -515,7 +533,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
@@ -523,7 +541,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
@@ -531,7 +549,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
@@ -539,7 +557,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
@@ -547,7 +565,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -555,7 +573,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B9" t="s">
@@ -563,7 +581,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B10" t="s">
@@ -571,7 +589,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B11" t="s">
@@ -579,7 +597,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B12" t="s">
@@ -587,7 +605,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B13" t="s">
@@ -595,7 +613,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B14" t="s">
@@ -603,7 +621,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B15" t="s">
@@ -611,7 +629,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B16" t="s">
@@ -619,7 +637,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B17" t="s">
